--- a/suppr-draft-sp-type-orga/ig/StructureDefinition-ror-organization-nb-temporary-social-help-place.xlsx
+++ b/suppr-draft-sp-type-orga/ig/StructureDefinition-ror-organization-nb-temporary-social-help-place.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-13T16:52:13+00:00</t>
+    <t>2025-02-17T10:19:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
